--- a/Code/Results/Cases/Case_3_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006204028025722</v>
+        <v>1.03018965827057</v>
       </c>
       <c r="D2">
-        <v>1.021664385176605</v>
+        <v>1.033834211653507</v>
       </c>
       <c r="E2">
-        <v>1.020148858474957</v>
+        <v>1.040268634461493</v>
       </c>
       <c r="F2">
-        <v>1.02737921995878</v>
+        <v>1.052117186046802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044149217562267</v>
+        <v>1.036122513893768</v>
       </c>
       <c r="J2">
-        <v>1.02820074797722</v>
+        <v>1.035332276107717</v>
       </c>
       <c r="K2">
-        <v>1.032829931082594</v>
+        <v>1.036635421405562</v>
       </c>
       <c r="L2">
-        <v>1.031334446897836</v>
+        <v>1.043051463757426</v>
       </c>
       <c r="M2">
-        <v>1.038469854518815</v>
+        <v>1.054866806748396</v>
       </c>
       <c r="N2">
-        <v>1.013319761476729</v>
+        <v>1.015781473368811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009725699089512</v>
+        <v>1.030942519852846</v>
       </c>
       <c r="D3">
-        <v>1.02409560757041</v>
+        <v>1.03437577644047</v>
       </c>
       <c r="E3">
-        <v>1.023186745106356</v>
+        <v>1.040973717895764</v>
       </c>
       <c r="F3">
-        <v>1.031071874623138</v>
+        <v>1.052985740421213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045032678463635</v>
+        <v>1.036270697065648</v>
       </c>
       <c r="J3">
-        <v>1.02995469790351</v>
+        <v>1.03572749104819</v>
       </c>
       <c r="K3">
-        <v>1.034429190966113</v>
+        <v>1.03698676251411</v>
       </c>
       <c r="L3">
-        <v>1.033531299957949</v>
+        <v>1.043567213091242</v>
       </c>
       <c r="M3">
-        <v>1.0413220411936</v>
+        <v>1.055547999583379</v>
       </c>
       <c r="N3">
-        <v>1.013907534350614</v>
+        <v>1.015913245635315</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011965518029584</v>
+        <v>1.031430385047041</v>
       </c>
       <c r="D4">
-        <v>1.02564485360765</v>
+        <v>1.034726779170171</v>
       </c>
       <c r="E4">
-        <v>1.025124354122524</v>
+        <v>1.041431020714989</v>
       </c>
       <c r="F4">
-        <v>1.033426750127362</v>
+        <v>1.053549121343055</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045586900030333</v>
+        <v>1.036365761550907</v>
       </c>
       <c r="J4">
-        <v>1.031068019271645</v>
+        <v>1.035983241863133</v>
       </c>
       <c r="K4">
-        <v>1.035443314880636</v>
+        <v>1.037213967982992</v>
       </c>
       <c r="L4">
-        <v>1.034928719559338</v>
+        <v>1.043901328062478</v>
       </c>
       <c r="M4">
-        <v>1.043137811901919</v>
+        <v>1.055989501454468</v>
       </c>
       <c r="N4">
-        <v>1.014280545395288</v>
+        <v>1.015998492824584</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012898076420259</v>
+        <v>1.031635652436869</v>
       </c>
       <c r="D5">
-        <v>1.026290563354761</v>
+        <v>1.034874476286533</v>
       </c>
       <c r="E5">
-        <v>1.025932378204799</v>
+        <v>1.041623524168833</v>
       </c>
       <c r="F5">
-        <v>1.034408715295094</v>
+        <v>1.053786292042105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04581578501562</v>
+        <v>1.03640552962477</v>
       </c>
       <c r="J5">
-        <v>1.031531003256478</v>
+        <v>1.036090763069549</v>
       </c>
       <c r="K5">
-        <v>1.035864797138117</v>
+        <v>1.037309451393527</v>
       </c>
       <c r="L5">
-        <v>1.035510566779308</v>
+        <v>1.044041881963562</v>
       </c>
       <c r="M5">
-        <v>1.043894216031243</v>
+        <v>1.056175280431425</v>
       </c>
       <c r="N5">
-        <v>1.014435644775821</v>
+        <v>1.016034325900484</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013054133088187</v>
+        <v>1.031670127580944</v>
       </c>
       <c r="D6">
-        <v>1.02639865663499</v>
+        <v>1.034899283177593</v>
       </c>
       <c r="E6">
-        <v>1.026067670270667</v>
+        <v>1.041655861143537</v>
       </c>
       <c r="F6">
-        <v>1.034573127806061</v>
+        <v>1.053826133061903</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045853976643481</v>
+        <v>1.036412195283561</v>
       </c>
       <c r="J6">
-        <v>1.031608447064755</v>
+        <v>1.036108816524367</v>
       </c>
       <c r="K6">
-        <v>1.035935284008024</v>
+        <v>1.037325481460967</v>
       </c>
       <c r="L6">
-        <v>1.035607935419431</v>
+        <v>1.044065486929686</v>
       </c>
       <c r="M6">
-        <v>1.044020817545456</v>
+        <v>1.056206483546902</v>
       </c>
       <c r="N6">
-        <v>1.014461587165168</v>
+        <v>1.016040342134062</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011978014187579</v>
+        <v>1.031433127178854</v>
       </c>
       <c r="D7">
-        <v>1.025653503417666</v>
+        <v>1.034728752175935</v>
       </c>
       <c r="E7">
-        <v>1.025135176466837</v>
+        <v>1.041433591962614</v>
       </c>
       <c r="F7">
-        <v>1.033439902413074</v>
+        <v>1.053552289153841</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04558997446698</v>
+        <v>1.036366293708996</v>
       </c>
       <c r="J7">
-        <v>1.031074225404235</v>
+        <v>1.035984678554386</v>
       </c>
       <c r="K7">
-        <v>1.035448965693845</v>
+        <v>1.037215243971288</v>
       </c>
       <c r="L7">
-        <v>1.034936516162745</v>
+        <v>1.043903205791173</v>
       </c>
       <c r="M7">
-        <v>1.043147946062964</v>
+        <v>1.055991983170364</v>
       </c>
       <c r="N7">
-        <v>1.014282624528859</v>
+        <v>1.015998971647512</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007402415537702</v>
+        <v>1.030443942490991</v>
       </c>
       <c r="D8">
-        <v>1.022491061833004</v>
+        <v>1.034017116013533</v>
       </c>
       <c r="E8">
-        <v>1.021181457943281</v>
+        <v>1.040506698630681</v>
       </c>
       <c r="F8">
-        <v>1.028634464274023</v>
+        <v>1.052410433465123</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04445143745943</v>
+        <v>1.036172762417368</v>
       </c>
       <c r="J8">
-        <v>1.028798047063656</v>
+        <v>1.035465835857438</v>
       </c>
       <c r="K8">
-        <v>1.033374757574592</v>
+        <v>1.036754186113021</v>
       </c>
       <c r="L8">
-        <v>1.032081957619222</v>
+        <v>1.043225681832634</v>
       </c>
       <c r="M8">
-        <v>1.039440044903895</v>
+        <v>1.055096867907534</v>
       </c>
       <c r="N8">
-        <v>1.013519940110762</v>
+        <v>1.015826009927543</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9990292033192574</v>
+        <v>1.028706421968321</v>
       </c>
       <c r="D9">
-        <v>1.016729055633699</v>
+        <v>1.032767601797968</v>
       </c>
       <c r="E9">
-        <v>1.013990724052761</v>
+        <v>1.038881653033016</v>
       </c>
       <c r="F9">
-        <v>1.019891094792048</v>
+        <v>1.050408912936342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042308607047969</v>
+        <v>1.035825488694164</v>
       </c>
       <c r="J9">
-        <v>1.024616289556403</v>
+        <v>1.034551781935382</v>
       </c>
       <c r="K9">
-        <v>1.029556423580936</v>
+        <v>1.035940760255191</v>
       </c>
       <c r="L9">
-        <v>1.026860817641245</v>
+        <v>1.042034859054382</v>
       </c>
       <c r="M9">
-        <v>1.032669490519688</v>
+        <v>1.053525192477457</v>
       </c>
       <c r="N9">
-        <v>1.012118199689163</v>
+        <v>1.015521109915208</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9932204814043255</v>
+        <v>1.027551921484984</v>
       </c>
       <c r="D10">
-        <v>1.01275133975259</v>
+        <v>1.031937716143216</v>
       </c>
       <c r="E10">
-        <v>1.009034027218767</v>
+        <v>1.037803962994768</v>
       </c>
       <c r="F10">
-        <v>1.013860552245945</v>
+        <v>1.049081806709532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040783763972913</v>
+        <v>1.035589817338837</v>
       </c>
       <c r="J10">
-        <v>1.021705686428927</v>
+        <v>1.033942633877023</v>
       </c>
       <c r="K10">
-        <v>1.026894119270146</v>
+        <v>1.035397891843715</v>
       </c>
       <c r="L10">
-        <v>1.023242063020466</v>
+        <v>1.041243128579632</v>
       </c>
       <c r="M10">
-        <v>1.027983979897845</v>
+        <v>1.052481307543023</v>
       </c>
       <c r="N10">
-        <v>1.011142284161639</v>
+        <v>1.015317790891726</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9906472693348022</v>
+        <v>1.027052946845907</v>
       </c>
       <c r="D11">
-        <v>1.01099446538281</v>
+        <v>1.031579131199156</v>
       </c>
       <c r="E11">
-        <v>1.006846165259708</v>
+        <v>1.037338682699335</v>
       </c>
       <c r="F11">
-        <v>1.01119758147559</v>
+        <v>1.048508900211152</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040099593705146</v>
+        <v>1.035486792830788</v>
       </c>
       <c r="J11">
-        <v>1.020414376213906</v>
+        <v>1.033678935025086</v>
       </c>
       <c r="K11">
-        <v>1.025711978532019</v>
+        <v>1.035162701396633</v>
       </c>
       <c r="L11">
-        <v>1.021640117591804</v>
+        <v>1.040900830619274</v>
       </c>
       <c r="M11">
-        <v>1.025911372853654</v>
+        <v>1.052030242321617</v>
       </c>
       <c r="N11">
-        <v>1.010709269949575</v>
+        <v>1.015229745008738</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9896823684341471</v>
+        <v>1.02686774741036</v>
       </c>
       <c r="D12">
-        <v>1.010336509314717</v>
+        <v>1.031446053061511</v>
       </c>
       <c r="E12">
-        <v>1.006026985800415</v>
+        <v>1.037166064294895</v>
       </c>
       <c r="F12">
-        <v>1.010200320166194</v>
+        <v>1.048296360795618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039841775479827</v>
+        <v>1.035448378873009</v>
       </c>
       <c r="J12">
-        <v>1.019929900045208</v>
+        <v>1.033580996826524</v>
       </c>
       <c r="K12">
-        <v>1.025268321757717</v>
+        <v>1.035075323750091</v>
       </c>
       <c r="L12">
-        <v>1.021039622077268</v>
+        <v>1.040773766636109</v>
       </c>
       <c r="M12">
-        <v>1.025134673026544</v>
+        <v>1.051862840350978</v>
       </c>
       <c r="N12">
-        <v>1.010546806387634</v>
+        <v>1.015197040214814</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9898897608972184</v>
+        <v>1.026907466861959</v>
       </c>
       <c r="D13">
-        <v>1.010477889529059</v>
+        <v>1.03147459348089</v>
       </c>
       <c r="E13">
-        <v>1.006203001545945</v>
+        <v>1.03720308210905</v>
       </c>
       <c r="F13">
-        <v>1.010414609112714</v>
+        <v>1.048341939258447</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039897246799336</v>
+        <v>1.035456625395142</v>
       </c>
       <c r="J13">
-        <v>1.020034043023859</v>
+        <v>1.033602004369908</v>
       </c>
       <c r="K13">
-        <v>1.025363696324912</v>
+        <v>1.035094067320124</v>
       </c>
       <c r="L13">
-        <v>1.021168680933535</v>
+        <v>1.040801018613224</v>
       </c>
       <c r="M13">
-        <v>1.025301591820274</v>
+        <v>1.051898742106511</v>
       </c>
       <c r="N13">
-        <v>1.010581729721464</v>
+        <v>1.015204055525068</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9905676981486289</v>
+        <v>1.027037635295311</v>
       </c>
       <c r="D14">
-        <v>1.010940189314437</v>
+        <v>1.031568128535564</v>
       </c>
       <c r="E14">
-        <v>1.006778586003174</v>
+        <v>1.037324409764874</v>
       </c>
       <c r="F14">
-        <v>1.01111531516608</v>
+        <v>1.048491326246993</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040078358153863</v>
+        <v>1.035483620496442</v>
       </c>
       <c r="J14">
-        <v>1.020374428719201</v>
+        <v>1.03367083918486</v>
       </c>
       <c r="K14">
-        <v>1.025675399571802</v>
+        <v>1.035155479081344</v>
       </c>
       <c r="L14">
-        <v>1.021590593072934</v>
+        <v>1.040890325814811</v>
       </c>
       <c r="M14">
-        <v>1.025847311763822</v>
+        <v>1.052016401879138</v>
       </c>
       <c r="N14">
-        <v>1.010695874092953</v>
+        <v>1.015227041630406</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9909841806706639</v>
+        <v>1.027117855234019</v>
       </c>
       <c r="D15">
-        <v>1.011224309369257</v>
+        <v>1.03162577403557</v>
       </c>
       <c r="E15">
-        <v>1.007132351833662</v>
+        <v>1.037399191284988</v>
       </c>
       <c r="F15">
-        <v>1.011545957240438</v>
+        <v>1.048583403493862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040189455334068</v>
+        <v>1.035500233736392</v>
       </c>
       <c r="J15">
-        <v>1.020583506886644</v>
+        <v>1.033713252123083</v>
       </c>
       <c r="K15">
-        <v>1.025866841809808</v>
+        <v>1.035193314622226</v>
       </c>
       <c r="L15">
-        <v>1.021849817091406</v>
+        <v>1.040945361673574</v>
       </c>
       <c r="M15">
-        <v>1.026182633037299</v>
+        <v>1.05208891505263</v>
       </c>
       <c r="N15">
-        <v>1.010765985480636</v>
+        <v>1.015241204059033</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9933900029417789</v>
+        <v>1.027585056587596</v>
       </c>
       <c r="D16">
-        <v>1.012867194739762</v>
+        <v>1.03196153044467</v>
       </c>
       <c r="E16">
-        <v>1.009178330207077</v>
+        <v>1.037834871087439</v>
       </c>
       <c r="F16">
-        <v>1.014036166228941</v>
+        <v>1.049119865464296</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040828658430695</v>
+        <v>1.035596634210744</v>
       </c>
       <c r="J16">
-        <v>1.021790719105142</v>
+        <v>1.033960136212038</v>
       </c>
       <c r="K16">
-        <v>1.026971943303373</v>
+        <v>1.035413498140967</v>
       </c>
       <c r="L16">
-        <v>1.023347624329316</v>
+        <v>1.041265856999431</v>
       </c>
       <c r="M16">
-        <v>1.028120587644744</v>
+        <v>1.052511263307042</v>
       </c>
       <c r="N16">
-        <v>1.011170797389638</v>
+        <v>1.015323634091967</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9948833209032352</v>
+        <v>1.02787837049485</v>
       </c>
       <c r="D17">
-        <v>1.013888364956496</v>
+        <v>1.032172346688588</v>
       </c>
       <c r="E17">
-        <v>1.010450404621561</v>
+        <v>1.038108528876631</v>
       </c>
       <c r="F17">
-        <v>1.015584125792725</v>
+        <v>1.049456841130794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041223148075949</v>
+        <v>1.035656842573608</v>
       </c>
       <c r="J17">
-        <v>1.022539555546919</v>
+        <v>1.034115018768069</v>
       </c>
       <c r="K17">
-        <v>1.027657185402309</v>
+        <v>1.035551580948828</v>
       </c>
       <c r="L17">
-        <v>1.024277648329895</v>
+        <v>1.041467037362141</v>
       </c>
       <c r="M17">
-        <v>1.029324317068883</v>
+        <v>1.052776445268029</v>
       </c>
       <c r="N17">
-        <v>1.011421893265855</v>
+        <v>1.015375338630345</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9957487789666749</v>
+        <v>1.028049545295629</v>
       </c>
       <c r="D18">
-        <v>1.014480681244016</v>
+        <v>1.032295385534433</v>
       </c>
       <c r="E18">
-        <v>1.01118839074301</v>
+        <v>1.038268280551972</v>
       </c>
       <c r="F18">
-        <v>1.016482059887425</v>
+        <v>1.049653560997012</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041450947633795</v>
+        <v>1.035691866751391</v>
       </c>
       <c r="J18">
-        <v>1.022973359984028</v>
+        <v>1.034205365447628</v>
       </c>
       <c r="K18">
-        <v>1.028054054528857</v>
+        <v>1.035632110180956</v>
       </c>
       <c r="L18">
-        <v>1.024816752783845</v>
+        <v>1.04158443316144</v>
       </c>
       <c r="M18">
-        <v>1.030022229661506</v>
+        <v>1.052931212356848</v>
       </c>
       <c r="N18">
-        <v>1.011567350140133</v>
+        <v>1.015405496266286</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9960429444604575</v>
+        <v>1.028107926643774</v>
       </c>
       <c r="D19">
-        <v>1.014682089176493</v>
+        <v>1.032337350974642</v>
       </c>
       <c r="E19">
-        <v>1.011439355373471</v>
+        <v>1.03832277402253</v>
       </c>
       <c r="F19">
-        <v>1.016787400390376</v>
+        <v>1.049720665757085</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041528234172052</v>
+        <v>1.035703793066032</v>
       </c>
       <c r="J19">
-        <v>1.02312077574235</v>
+        <v>1.034236172359288</v>
       </c>
       <c r="K19">
-        <v>1.028188902531051</v>
+        <v>1.035659566470015</v>
       </c>
       <c r="L19">
-        <v>1.02500000907914</v>
+        <v>1.041624470645378</v>
       </c>
       <c r="M19">
-        <v>1.030259494941477</v>
+        <v>1.052983999300325</v>
       </c>
       <c r="N19">
-        <v>1.011616778650427</v>
+        <v>1.015415779099575</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9947236807463001</v>
+        <v>1.027846891389761</v>
       </c>
       <c r="D20">
-        <v>1.013779147301876</v>
+        <v>1.032149720505256</v>
       </c>
       <c r="E20">
-        <v>1.01031433798898</v>
+        <v>1.038079154346514</v>
       </c>
       <c r="F20">
-        <v>1.015418560338818</v>
+        <v>1.049420669472596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041181061602695</v>
+        <v>1.035650392538852</v>
       </c>
       <c r="J20">
-        <v>1.022459521826665</v>
+        <v>1.034098400673791</v>
       </c>
       <c r="K20">
-        <v>1.027583958246415</v>
+        <v>1.035536767215906</v>
       </c>
       <c r="L20">
-        <v>1.024178214823253</v>
+        <v>1.041445447357692</v>
       </c>
       <c r="M20">
-        <v>1.029195604865304</v>
+        <v>1.052747984333237</v>
       </c>
       <c r="N20">
-        <v>1.011395057197667</v>
+        <v>1.015369791296463</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9903683167726519</v>
+        <v>1.026999300001238</v>
       </c>
       <c r="D21">
-        <v>1.010804203507724</v>
+        <v>1.031540581567888</v>
       </c>
       <c r="E21">
-        <v>1.006609272618773</v>
+        <v>1.037288676051776</v>
       </c>
       <c r="F21">
-        <v>1.010909201600432</v>
+        <v>1.048447328208333</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040025127945846</v>
+        <v>1.035475675138088</v>
       </c>
       <c r="J21">
-        <v>1.020274328237947</v>
+        <v>1.033650568724939</v>
       </c>
       <c r="K21">
-        <v>1.025583737761568</v>
+        <v>1.035137395319272</v>
       </c>
       <c r="L21">
-        <v>1.021466502916741</v>
+        <v>1.040864024828667</v>
       </c>
       <c r="M21">
-        <v>1.025686801919751</v>
+        <v>1.051981750025331</v>
       </c>
       <c r="N21">
-        <v>1.010662306673048</v>
+        <v>1.015220272808915</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.987577099317494</v>
+        <v>1.026467207988617</v>
       </c>
       <c r="D22">
-        <v>1.008902539816704</v>
+        <v>1.031158265439597</v>
       </c>
       <c r="E22">
-        <v>1.004241945311742</v>
+        <v>1.036792872043075</v>
       </c>
       <c r="F22">
-        <v>1.008026850560886</v>
+        <v>1.047836875959361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039276964001165</v>
+        <v>1.03536497864136</v>
       </c>
       <c r="J22">
-        <v>1.018872398159123</v>
+        <v>1.033369065023033</v>
       </c>
       <c r="K22">
-        <v>1.02429967485503</v>
+        <v>1.034886194088424</v>
       </c>
       <c r="L22">
-        <v>1.019729834227558</v>
+        <v>1.040498929226331</v>
       </c>
       <c r="M22">
-        <v>1.023440953618556</v>
+        <v>1.051500820675529</v>
       </c>
       <c r="N22">
-        <v>1.01019217899085</v>
+        <v>1.01512626117756</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.989061916871651</v>
+        <v>1.02674920142054</v>
       </c>
       <c r="D23">
-        <v>1.009913671575364</v>
+        <v>1.031360873946846</v>
       </c>
       <c r="E23">
-        <v>1.005500585255349</v>
+        <v>1.037055592581847</v>
       </c>
       <c r="F23">
-        <v>1.009559428160496</v>
+        <v>1.048160342840354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039675639998795</v>
+        <v>1.035423740767666</v>
       </c>
       <c r="J23">
-        <v>1.0196183017047</v>
+        <v>1.03351828875696</v>
       </c>
       <c r="K23">
-        <v>1.024982939107529</v>
+        <v>1.035019369679767</v>
       </c>
       <c r="L23">
-        <v>1.020653551297007</v>
+        <v>1.040692428431691</v>
       </c>
       <c r="M23">
-        <v>1.024635378970794</v>
+        <v>1.051755690859246</v>
       </c>
       <c r="N23">
-        <v>1.010442314403915</v>
+        <v>1.015176098686644</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9947958324443829</v>
+        <v>1.027861115165267</v>
       </c>
       <c r="D24">
-        <v>1.013828508289901</v>
+        <v>1.032159944077361</v>
       </c>
       <c r="E24">
-        <v>1.0103758329656</v>
+        <v>1.038092427025565</v>
       </c>
       <c r="F24">
-        <v>1.015493387558185</v>
+        <v>1.049437013370204</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041200085767942</v>
+        <v>1.035653307323521</v>
       </c>
       <c r="J24">
-        <v>1.022495694814528</v>
+        <v>1.034105909655977</v>
       </c>
       <c r="K24">
-        <v>1.027617055153439</v>
+        <v>1.035543460941832</v>
       </c>
       <c r="L24">
-        <v>1.024223154922644</v>
+        <v>1.041455202794942</v>
       </c>
       <c r="M24">
-        <v>1.02925377733757</v>
+        <v>1.052760844323861</v>
       </c>
       <c r="N24">
-        <v>1.011407186357763</v>
+        <v>1.015372297900233</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001232450578935</v>
+        <v>1.029154943156983</v>
       </c>
       <c r="D25">
-        <v>1.018242020319406</v>
+        <v>1.033090088762127</v>
       </c>
       <c r="E25">
-        <v>1.015877462354269</v>
+        <v>1.039300775088976</v>
       </c>
       <c r="F25">
-        <v>1.022185757340468</v>
+        <v>1.050925087302167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04287921080126</v>
+        <v>1.035916002981669</v>
       </c>
       <c r="J25">
-        <v>1.02571840891389</v>
+        <v>1.034788053492107</v>
       </c>
       <c r="K25">
-        <v>1.030563601877755</v>
+        <v>1.036151158951619</v>
       </c>
       <c r="L25">
-        <v>1.028234201548244</v>
+        <v>1.04234234292266</v>
       </c>
       <c r="M25">
-        <v>1.034449160549158</v>
+        <v>1.05393082928297</v>
       </c>
       <c r="N25">
-        <v>1.012487688119985</v>
+        <v>1.015599945144781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03018965827057</v>
+        <v>1.006204028025722</v>
       </c>
       <c r="D2">
-        <v>1.033834211653507</v>
+        <v>1.021664385176605</v>
       </c>
       <c r="E2">
-        <v>1.040268634461493</v>
+        <v>1.020148858474957</v>
       </c>
       <c r="F2">
-        <v>1.052117186046802</v>
+        <v>1.027379219958781</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036122513893768</v>
+        <v>1.044149217562268</v>
       </c>
       <c r="J2">
-        <v>1.035332276107717</v>
+        <v>1.028200747977221</v>
       </c>
       <c r="K2">
-        <v>1.036635421405562</v>
+        <v>1.032829931082594</v>
       </c>
       <c r="L2">
-        <v>1.043051463757426</v>
+        <v>1.031334446897836</v>
       </c>
       <c r="M2">
-        <v>1.054866806748396</v>
+        <v>1.038469854518816</v>
       </c>
       <c r="N2">
-        <v>1.015781473368811</v>
+        <v>1.013319761476729</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030942519852846</v>
+        <v>1.009725699089512</v>
       </c>
       <c r="D3">
-        <v>1.03437577644047</v>
+        <v>1.02409560757041</v>
       </c>
       <c r="E3">
-        <v>1.040973717895764</v>
+        <v>1.023186745106356</v>
       </c>
       <c r="F3">
-        <v>1.052985740421213</v>
+        <v>1.031071874623138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036270697065648</v>
+        <v>1.045032678463635</v>
       </c>
       <c r="J3">
-        <v>1.03572749104819</v>
+        <v>1.02995469790351</v>
       </c>
       <c r="K3">
-        <v>1.03698676251411</v>
+        <v>1.034429190966112</v>
       </c>
       <c r="L3">
-        <v>1.043567213091242</v>
+        <v>1.033531299957949</v>
       </c>
       <c r="M3">
-        <v>1.055547999583379</v>
+        <v>1.0413220411936</v>
       </c>
       <c r="N3">
-        <v>1.015913245635315</v>
+        <v>1.013907534350614</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031430385047041</v>
+        <v>1.011965518029583</v>
       </c>
       <c r="D4">
-        <v>1.034726779170171</v>
+        <v>1.025644853607648</v>
       </c>
       <c r="E4">
-        <v>1.041431020714989</v>
+        <v>1.025124354122523</v>
       </c>
       <c r="F4">
-        <v>1.053549121343055</v>
+        <v>1.033426750127361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036365761550907</v>
+        <v>1.045586900030333</v>
       </c>
       <c r="J4">
-        <v>1.035983241863133</v>
+        <v>1.031068019271644</v>
       </c>
       <c r="K4">
-        <v>1.037213967982992</v>
+        <v>1.035443314880635</v>
       </c>
       <c r="L4">
-        <v>1.043901328062478</v>
+        <v>1.034928719559337</v>
       </c>
       <c r="M4">
-        <v>1.055989501454468</v>
+        <v>1.043137811901919</v>
       </c>
       <c r="N4">
-        <v>1.015998492824584</v>
+        <v>1.014280545395287</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031635652436869</v>
+        <v>1.012898076420259</v>
       </c>
       <c r="D5">
-        <v>1.034874476286533</v>
+        <v>1.026290563354761</v>
       </c>
       <c r="E5">
-        <v>1.041623524168833</v>
+        <v>1.0259323782048</v>
       </c>
       <c r="F5">
-        <v>1.053786292042105</v>
+        <v>1.034408715295095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03640552962477</v>
+        <v>1.04581578501562</v>
       </c>
       <c r="J5">
-        <v>1.036090763069549</v>
+        <v>1.031531003256478</v>
       </c>
       <c r="K5">
-        <v>1.037309451393527</v>
+        <v>1.035864797138117</v>
       </c>
       <c r="L5">
-        <v>1.044041881963562</v>
+        <v>1.035510566779308</v>
       </c>
       <c r="M5">
-        <v>1.056175280431425</v>
+        <v>1.043894216031243</v>
       </c>
       <c r="N5">
-        <v>1.016034325900484</v>
+        <v>1.014435644775821</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031670127580944</v>
+        <v>1.013054133088187</v>
       </c>
       <c r="D6">
-        <v>1.034899283177593</v>
+        <v>1.02639865663499</v>
       </c>
       <c r="E6">
-        <v>1.041655861143537</v>
+        <v>1.026067670270667</v>
       </c>
       <c r="F6">
-        <v>1.053826133061903</v>
+        <v>1.034573127806061</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036412195283561</v>
+        <v>1.045853976643481</v>
       </c>
       <c r="J6">
-        <v>1.036108816524367</v>
+        <v>1.031608447064754</v>
       </c>
       <c r="K6">
-        <v>1.037325481460967</v>
+        <v>1.035935284008024</v>
       </c>
       <c r="L6">
-        <v>1.044065486929686</v>
+        <v>1.035607935419431</v>
       </c>
       <c r="M6">
-        <v>1.056206483546902</v>
+        <v>1.044020817545457</v>
       </c>
       <c r="N6">
-        <v>1.016040342134062</v>
+        <v>1.014461587165168</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031433127178854</v>
+        <v>1.01197801418758</v>
       </c>
       <c r="D7">
-        <v>1.034728752175935</v>
+        <v>1.025653503417667</v>
       </c>
       <c r="E7">
-        <v>1.041433591962614</v>
+        <v>1.025135176466838</v>
       </c>
       <c r="F7">
-        <v>1.053552289153841</v>
+        <v>1.033439902413075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036366293708996</v>
+        <v>1.045589974466981</v>
       </c>
       <c r="J7">
-        <v>1.035984678554386</v>
+        <v>1.031074225404236</v>
       </c>
       <c r="K7">
-        <v>1.037215243971288</v>
+        <v>1.035448965693846</v>
       </c>
       <c r="L7">
-        <v>1.043903205791173</v>
+        <v>1.034936516162746</v>
       </c>
       <c r="M7">
-        <v>1.055991983170364</v>
+        <v>1.043147946062966</v>
       </c>
       <c r="N7">
-        <v>1.015998971647512</v>
+        <v>1.01428262452886</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030443942490991</v>
+        <v>1.007402415537702</v>
       </c>
       <c r="D8">
-        <v>1.034017116013533</v>
+        <v>1.022491061833003</v>
       </c>
       <c r="E8">
-        <v>1.040506698630681</v>
+        <v>1.021181457943281</v>
       </c>
       <c r="F8">
-        <v>1.052410433465123</v>
+        <v>1.028634464274022</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036172762417368</v>
+        <v>1.04445143745943</v>
       </c>
       <c r="J8">
-        <v>1.035465835857438</v>
+        <v>1.028798047063655</v>
       </c>
       <c r="K8">
-        <v>1.036754186113021</v>
+        <v>1.033374757574592</v>
       </c>
       <c r="L8">
-        <v>1.043225681832634</v>
+        <v>1.032081957619222</v>
       </c>
       <c r="M8">
-        <v>1.055096867907534</v>
+        <v>1.039440044903895</v>
       </c>
       <c r="N8">
-        <v>1.015826009927543</v>
+        <v>1.013519940110762</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028706421968321</v>
+        <v>0.9990292033192573</v>
       </c>
       <c r="D9">
-        <v>1.032767601797968</v>
+        <v>1.016729055633699</v>
       </c>
       <c r="E9">
-        <v>1.038881653033016</v>
+        <v>1.013990724052761</v>
       </c>
       <c r="F9">
-        <v>1.050408912936342</v>
+        <v>1.019891094792048</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035825488694164</v>
+        <v>1.042308607047969</v>
       </c>
       <c r="J9">
-        <v>1.034551781935382</v>
+        <v>1.024616289556403</v>
       </c>
       <c r="K9">
-        <v>1.035940760255191</v>
+        <v>1.029556423580936</v>
       </c>
       <c r="L9">
-        <v>1.042034859054382</v>
+        <v>1.026860817641245</v>
       </c>
       <c r="M9">
-        <v>1.053525192477457</v>
+        <v>1.032669490519688</v>
       </c>
       <c r="N9">
-        <v>1.015521109915208</v>
+        <v>1.012118199689163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027551921484984</v>
+        <v>0.9932204814043253</v>
       </c>
       <c r="D10">
-        <v>1.031937716143216</v>
+        <v>1.01275133975259</v>
       </c>
       <c r="E10">
-        <v>1.037803962994768</v>
+        <v>1.009034027218767</v>
       </c>
       <c r="F10">
-        <v>1.049081806709532</v>
+        <v>1.013860552245945</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035589817338837</v>
+        <v>1.040783763972913</v>
       </c>
       <c r="J10">
-        <v>1.033942633877023</v>
+        <v>1.021705686428926</v>
       </c>
       <c r="K10">
-        <v>1.035397891843715</v>
+        <v>1.026894119270146</v>
       </c>
       <c r="L10">
-        <v>1.041243128579632</v>
+        <v>1.023242063020465</v>
       </c>
       <c r="M10">
-        <v>1.052481307543023</v>
+        <v>1.027983979897845</v>
       </c>
       <c r="N10">
-        <v>1.015317790891726</v>
+        <v>1.011142284161639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027052946845907</v>
+        <v>0.9906472693348013</v>
       </c>
       <c r="D11">
-        <v>1.031579131199156</v>
+        <v>1.01099446538281</v>
       </c>
       <c r="E11">
-        <v>1.037338682699335</v>
+        <v>1.006846165259708</v>
       </c>
       <c r="F11">
-        <v>1.048508900211152</v>
+        <v>1.011197581475589</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035486792830788</v>
+        <v>1.040099593705146</v>
       </c>
       <c r="J11">
-        <v>1.033678935025086</v>
+        <v>1.020414376213905</v>
       </c>
       <c r="K11">
-        <v>1.035162701396633</v>
+        <v>1.025711978532018</v>
       </c>
       <c r="L11">
-        <v>1.040900830619274</v>
+        <v>1.021640117591803</v>
       </c>
       <c r="M11">
-        <v>1.052030242321617</v>
+        <v>1.025911372853652</v>
       </c>
       <c r="N11">
-        <v>1.015229745008738</v>
+        <v>1.010709269949575</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02686774741036</v>
+        <v>0.9896823684341468</v>
       </c>
       <c r="D12">
-        <v>1.031446053061511</v>
+        <v>1.010336509314717</v>
       </c>
       <c r="E12">
-        <v>1.037166064294895</v>
+        <v>1.006026985800415</v>
       </c>
       <c r="F12">
-        <v>1.048296360795618</v>
+        <v>1.010200320166194</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035448378873009</v>
+        <v>1.039841775479827</v>
       </c>
       <c r="J12">
-        <v>1.033580996826524</v>
+        <v>1.019929900045208</v>
       </c>
       <c r="K12">
-        <v>1.035075323750091</v>
+        <v>1.025268321757716</v>
       </c>
       <c r="L12">
-        <v>1.040773766636109</v>
+        <v>1.021039622077268</v>
       </c>
       <c r="M12">
-        <v>1.051862840350978</v>
+        <v>1.025134673026543</v>
       </c>
       <c r="N12">
-        <v>1.015197040214814</v>
+        <v>1.010546806387633</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026907466861959</v>
+        <v>0.9898897608972179</v>
       </c>
       <c r="D13">
-        <v>1.03147459348089</v>
+        <v>1.010477889529058</v>
       </c>
       <c r="E13">
-        <v>1.03720308210905</v>
+        <v>1.006203001545944</v>
       </c>
       <c r="F13">
-        <v>1.048341939258447</v>
+        <v>1.010414609112713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035456625395142</v>
+        <v>1.039897246799336</v>
       </c>
       <c r="J13">
-        <v>1.033602004369908</v>
+        <v>1.020034043023859</v>
       </c>
       <c r="K13">
-        <v>1.035094067320124</v>
+        <v>1.025363696324911</v>
       </c>
       <c r="L13">
-        <v>1.040801018613224</v>
+        <v>1.021168680933535</v>
       </c>
       <c r="M13">
-        <v>1.051898742106511</v>
+        <v>1.025301591820273</v>
       </c>
       <c r="N13">
-        <v>1.015204055525068</v>
+        <v>1.010581729721464</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027037635295311</v>
+        <v>0.9905676981486291</v>
       </c>
       <c r="D14">
-        <v>1.031568128535564</v>
+        <v>1.010940189314437</v>
       </c>
       <c r="E14">
-        <v>1.037324409764874</v>
+        <v>1.006778586003175</v>
       </c>
       <c r="F14">
-        <v>1.048491326246993</v>
+        <v>1.01111531516608</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035483620496442</v>
+        <v>1.040078358153863</v>
       </c>
       <c r="J14">
-        <v>1.03367083918486</v>
+        <v>1.020374428719202</v>
       </c>
       <c r="K14">
-        <v>1.035155479081344</v>
+        <v>1.025675399571802</v>
       </c>
       <c r="L14">
-        <v>1.040890325814811</v>
+        <v>1.021590593072935</v>
       </c>
       <c r="M14">
-        <v>1.052016401879138</v>
+        <v>1.025847311763822</v>
       </c>
       <c r="N14">
-        <v>1.015227041630406</v>
+        <v>1.010695874092953</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027117855234019</v>
+        <v>0.9909841806706636</v>
       </c>
       <c r="D15">
-        <v>1.03162577403557</v>
+        <v>1.011224309369258</v>
       </c>
       <c r="E15">
-        <v>1.037399191284988</v>
+        <v>1.007132351833661</v>
       </c>
       <c r="F15">
-        <v>1.048583403493862</v>
+        <v>1.011545957240438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035500233736392</v>
+        <v>1.040189455334068</v>
       </c>
       <c r="J15">
-        <v>1.033713252123083</v>
+        <v>1.020583506886644</v>
       </c>
       <c r="K15">
-        <v>1.035193314622226</v>
+        <v>1.025866841809808</v>
       </c>
       <c r="L15">
-        <v>1.040945361673574</v>
+        <v>1.021849817091406</v>
       </c>
       <c r="M15">
-        <v>1.05208891505263</v>
+        <v>1.026182633037298</v>
       </c>
       <c r="N15">
-        <v>1.015241204059033</v>
+        <v>1.010765985480636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027585056587596</v>
+        <v>0.9933900029417786</v>
       </c>
       <c r="D16">
-        <v>1.03196153044467</v>
+        <v>1.012867194739762</v>
       </c>
       <c r="E16">
-        <v>1.037834871087439</v>
+        <v>1.009178330207077</v>
       </c>
       <c r="F16">
-        <v>1.049119865464296</v>
+        <v>1.014036166228941</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035596634210744</v>
+        <v>1.040828658430695</v>
       </c>
       <c r="J16">
-        <v>1.033960136212038</v>
+        <v>1.021790719105142</v>
       </c>
       <c r="K16">
-        <v>1.035413498140967</v>
+        <v>1.026971943303373</v>
       </c>
       <c r="L16">
-        <v>1.041265856999431</v>
+        <v>1.023347624329316</v>
       </c>
       <c r="M16">
-        <v>1.052511263307042</v>
+        <v>1.028120587644744</v>
       </c>
       <c r="N16">
-        <v>1.015323634091967</v>
+        <v>1.011170797389637</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02787837049485</v>
+        <v>0.9948833209032353</v>
       </c>
       <c r="D17">
-        <v>1.032172346688588</v>
+        <v>1.013888364956496</v>
       </c>
       <c r="E17">
-        <v>1.038108528876631</v>
+        <v>1.010450404621561</v>
       </c>
       <c r="F17">
-        <v>1.049456841130794</v>
+        <v>1.015584125792725</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035656842573608</v>
+        <v>1.041223148075949</v>
       </c>
       <c r="J17">
-        <v>1.034115018768069</v>
+        <v>1.022539555546919</v>
       </c>
       <c r="K17">
-        <v>1.035551580948828</v>
+        <v>1.027657185402309</v>
       </c>
       <c r="L17">
-        <v>1.041467037362141</v>
+        <v>1.024277648329896</v>
       </c>
       <c r="M17">
-        <v>1.052776445268029</v>
+        <v>1.029324317068883</v>
       </c>
       <c r="N17">
-        <v>1.015375338630345</v>
+        <v>1.011421893265855</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028049545295629</v>
+        <v>0.9957487789666757</v>
       </c>
       <c r="D18">
-        <v>1.032295385534433</v>
+        <v>1.014480681244017</v>
       </c>
       <c r="E18">
-        <v>1.038268280551972</v>
+        <v>1.011188390743011</v>
       </c>
       <c r="F18">
-        <v>1.049653560997012</v>
+        <v>1.016482059887425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035691866751391</v>
+        <v>1.041450947633795</v>
       </c>
       <c r="J18">
-        <v>1.034205365447628</v>
+        <v>1.022973359984028</v>
       </c>
       <c r="K18">
-        <v>1.035632110180956</v>
+        <v>1.028054054528858</v>
       </c>
       <c r="L18">
-        <v>1.04158443316144</v>
+        <v>1.024816752783845</v>
       </c>
       <c r="M18">
-        <v>1.052931212356848</v>
+        <v>1.030022229661507</v>
       </c>
       <c r="N18">
-        <v>1.015405496266286</v>
+        <v>1.011567350140133</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028107926643774</v>
+        <v>0.9960429444604585</v>
       </c>
       <c r="D19">
-        <v>1.032337350974642</v>
+        <v>1.014682089176494</v>
       </c>
       <c r="E19">
-        <v>1.03832277402253</v>
+        <v>1.011439355373472</v>
       </c>
       <c r="F19">
-        <v>1.049720665757085</v>
+        <v>1.016787400390377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035703793066032</v>
+        <v>1.041528234172053</v>
       </c>
       <c r="J19">
-        <v>1.034236172359288</v>
+        <v>1.023120775742351</v>
       </c>
       <c r="K19">
-        <v>1.035659566470015</v>
+        <v>1.028188902531053</v>
       </c>
       <c r="L19">
-        <v>1.041624470645378</v>
+        <v>1.025000009079141</v>
       </c>
       <c r="M19">
-        <v>1.052983999300325</v>
+        <v>1.030259494941477</v>
       </c>
       <c r="N19">
-        <v>1.015415779099575</v>
+        <v>1.011616778650428</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027846891389761</v>
+        <v>0.9947236807462995</v>
       </c>
       <c r="D20">
-        <v>1.032149720505256</v>
+        <v>1.013779147301876</v>
       </c>
       <c r="E20">
-        <v>1.038079154346514</v>
+        <v>1.01031433798898</v>
       </c>
       <c r="F20">
-        <v>1.049420669472596</v>
+        <v>1.015418560338818</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035650392538852</v>
+        <v>1.041181061602695</v>
       </c>
       <c r="J20">
-        <v>1.034098400673791</v>
+        <v>1.022459521826664</v>
       </c>
       <c r="K20">
-        <v>1.035536767215906</v>
+        <v>1.027583958246415</v>
       </c>
       <c r="L20">
-        <v>1.041445447357692</v>
+        <v>1.024178214823253</v>
       </c>
       <c r="M20">
-        <v>1.052747984333237</v>
+        <v>1.029195604865304</v>
       </c>
       <c r="N20">
-        <v>1.015369791296463</v>
+        <v>1.011395057197667</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026999300001238</v>
+        <v>0.9903683167726521</v>
       </c>
       <c r="D21">
-        <v>1.031540581567888</v>
+        <v>1.010804203507725</v>
       </c>
       <c r="E21">
-        <v>1.037288676051776</v>
+        <v>1.006609272618773</v>
       </c>
       <c r="F21">
-        <v>1.048447328208333</v>
+        <v>1.010909201600432</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035475675138088</v>
+        <v>1.040025127945846</v>
       </c>
       <c r="J21">
-        <v>1.033650568724939</v>
+        <v>1.020274328237947</v>
       </c>
       <c r="K21">
-        <v>1.035137395319272</v>
+        <v>1.025583737761568</v>
       </c>
       <c r="L21">
-        <v>1.040864024828667</v>
+        <v>1.021466502916742</v>
       </c>
       <c r="M21">
-        <v>1.051981750025331</v>
+        <v>1.025686801919752</v>
       </c>
       <c r="N21">
-        <v>1.015220272808915</v>
+        <v>1.010662306673048</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026467207988617</v>
+        <v>0.9875770993174939</v>
       </c>
       <c r="D22">
-        <v>1.031158265439597</v>
+        <v>1.008902539816704</v>
       </c>
       <c r="E22">
-        <v>1.036792872043075</v>
+        <v>1.004241945311742</v>
       </c>
       <c r="F22">
-        <v>1.047836875959361</v>
+        <v>1.008026850560887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03536497864136</v>
+        <v>1.039276964001165</v>
       </c>
       <c r="J22">
-        <v>1.033369065023033</v>
+        <v>1.018872398159123</v>
       </c>
       <c r="K22">
-        <v>1.034886194088424</v>
+        <v>1.02429967485503</v>
       </c>
       <c r="L22">
-        <v>1.040498929226331</v>
+        <v>1.019729834227558</v>
       </c>
       <c r="M22">
-        <v>1.051500820675529</v>
+        <v>1.023440953618556</v>
       </c>
       <c r="N22">
-        <v>1.01512626117756</v>
+        <v>1.01019217899085</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02674920142054</v>
+        <v>0.9890619168716515</v>
       </c>
       <c r="D23">
-        <v>1.031360873946846</v>
+        <v>1.009913671575365</v>
       </c>
       <c r="E23">
-        <v>1.037055592581847</v>
+        <v>1.005500585255349</v>
       </c>
       <c r="F23">
-        <v>1.048160342840354</v>
+        <v>1.009559428160496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035423740767666</v>
+        <v>1.039675639998795</v>
       </c>
       <c r="J23">
-        <v>1.03351828875696</v>
+        <v>1.0196183017047</v>
       </c>
       <c r="K23">
-        <v>1.035019369679767</v>
+        <v>1.024982939107529</v>
       </c>
       <c r="L23">
-        <v>1.040692428431691</v>
+        <v>1.020653551297008</v>
       </c>
       <c r="M23">
-        <v>1.051755690859246</v>
+        <v>1.024635378970794</v>
       </c>
       <c r="N23">
-        <v>1.015176098686644</v>
+        <v>1.010442314403915</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027861115165267</v>
+        <v>0.9947958324443829</v>
       </c>
       <c r="D24">
-        <v>1.032159944077361</v>
+        <v>1.013828508289901</v>
       </c>
       <c r="E24">
-        <v>1.038092427025565</v>
+        <v>1.0103758329656</v>
       </c>
       <c r="F24">
-        <v>1.049437013370204</v>
+        <v>1.015493387558184</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035653307323521</v>
+        <v>1.041200085767942</v>
       </c>
       <c r="J24">
-        <v>1.034105909655977</v>
+        <v>1.022495694814528</v>
       </c>
       <c r="K24">
-        <v>1.035543460941832</v>
+        <v>1.027617055153439</v>
       </c>
       <c r="L24">
-        <v>1.041455202794942</v>
+        <v>1.024223154922644</v>
       </c>
       <c r="M24">
-        <v>1.052760844323861</v>
+        <v>1.029253777337569</v>
       </c>
       <c r="N24">
-        <v>1.015372297900233</v>
+        <v>1.011407186357763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029154943156983</v>
+        <v>1.001232450578934</v>
       </c>
       <c r="D25">
-        <v>1.033090088762127</v>
+        <v>1.018242020319406</v>
       </c>
       <c r="E25">
-        <v>1.039300775088976</v>
+        <v>1.015877462354269</v>
       </c>
       <c r="F25">
-        <v>1.050925087302167</v>
+        <v>1.022185757340468</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035916002981669</v>
+        <v>1.04287921080126</v>
       </c>
       <c r="J25">
-        <v>1.034788053492107</v>
+        <v>1.02571840891389</v>
       </c>
       <c r="K25">
-        <v>1.036151158951619</v>
+        <v>1.030563601877754</v>
       </c>
       <c r="L25">
-        <v>1.04234234292266</v>
+        <v>1.028234201548244</v>
       </c>
       <c r="M25">
-        <v>1.05393082928297</v>
+        <v>1.034449160549158</v>
       </c>
       <c r="N25">
-        <v>1.015599945144781</v>
+        <v>1.012487688119985</v>
       </c>
     </row>
   </sheetData>
